--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value843.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value843.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6213410755779385</v>
+        <v>0.8172028064727783</v>
       </c>
       <c r="B1">
-        <v>1.394473193571551</v>
+        <v>1.182101249694824</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.56993842124939</v>
       </c>
       <c r="D1">
-        <v>2.61915626250365</v>
+        <v>3.956349611282349</v>
       </c>
       <c r="E1">
-        <v>1.636160460155403</v>
+        <v>1.233461260795593</v>
       </c>
     </row>
   </sheetData>
